--- a/Tracker Update.xlsx
+++ b/Tracker Update.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>DATE</t>
   </si>
@@ -608,6 +608,21 @@
   </si>
   <si>
     <t>Val,Attr,append,prepend,remove,addclass,removeclass,toggleclass,clickevent,hover,focus,blur,on,off</t>
+  </si>
+  <si>
+    <t>28-01-26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Angular </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Angular Encapsulation, Binding Methods, Angular Pipes, Auth Guards, Content Projection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Encapsulation - emulated,none,showdown
+Binding - interpolation,event,property,two way,style binding, attr binding
+Pipes - lowercase,uppercase,slice,currency,date,percent,value,async,json
+Content Projection - Single Line, Multi Line, Conditional </t>
   </si>
 </sst>
 </file>
@@ -713,7 +728,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -752,6 +767,12 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf fontId="0" fillId="3" borderId="1" numFmtId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1264,7 +1285,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A11" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1276,8 +1297,7 @@
     <col customWidth="1" min="4" max="4" style="1" width="46.28125"/>
     <col customWidth="1" min="5" max="5" style="1" width="47.8515625"/>
     <col customWidth="1" min="6" max="6" style="1" width="25.8515625"/>
-    <col min="7" max="7" style="1" width="9.140625"/>
-    <col min="8" max="16384" style="1" width="9.140625"/>
+    <col min="7" max="16384" style="1" width="9.140625"/>
   </cols>
   <sheetData>
     <row r="1" ht="27">
@@ -1298,7 +1318,7 @@
       </c>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" ht="114.75">
+    <row r="2" ht="63.75">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -1319,7 +1339,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" ht="165.75">
+    <row r="3" ht="102">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -1340,7 +1360,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" ht="114.75">
+    <row r="4" ht="76.5">
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
@@ -1361,7 +1381,7 @@
       <c r="H4" s="9"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" ht="256.5">
+    <row r="5" ht="121.5">
       <c r="A5" s="4" t="s">
         <v>14</v>
       </c>
@@ -1382,7 +1402,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" ht="40.5">
+    <row r="6" ht="27">
       <c r="A6" s="4" t="s">
         <v>19</v>
       </c>
@@ -1403,7 +1423,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" ht="81">
+    <row r="7" ht="40.5">
       <c r="A7" s="4" t="s">
         <v>19</v>
       </c>
@@ -1466,7 +1486,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" ht="148.5">
+    <row r="10" ht="81">
       <c r="A10" s="12">
         <v>46174</v>
       </c>
@@ -1555,7 +1575,7 @@
       </c>
       <c r="F14" s="8"/>
     </row>
-    <row r="15" ht="57">
+    <row r="15" ht="42.75">
       <c r="A15" s="4" t="s">
         <v>39</v>
       </c>
@@ -1591,7 +1611,7 @@
       </c>
       <c r="F16" s="8"/>
     </row>
-    <row r="17" ht="99.75">
+    <row r="17" ht="42.75">
       <c r="A17" s="8" t="s">
         <v>50</v>
       </c>
@@ -1607,7 +1627,7 @@
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
     </row>
-    <row r="18" ht="85.5">
+    <row r="18" ht="28.5">
       <c r="A18" s="8" t="s">
         <v>54</v>
       </c>
@@ -1622,6 +1642,24 @@
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
+    </row>
+    <row r="19" ht="99.75">
+      <c r="A19" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F19" s="15"/>
     </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>

--- a/Tracker Update.xlsx
+++ b/Tracker Update.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t>DATE</t>
   </si>
@@ -616,13 +616,23 @@
     <t xml:space="preserve">Angular </t>
   </si>
   <si>
-    <t xml:space="preserve">Angular Encapsulation, Binding Methods, Angular Pipes, Auth Guards, Content Projection</t>
+    <t xml:space="preserve">Angular Encapsulation, Binding Methods, Angular Pipes, Content Projection</t>
   </si>
   <si>
     <t xml:space="preserve">Encapsulation - emulated,none,showdown
 Binding - interpolation,event,property,two way,style binding, attr binding
 Pipes - lowercase,uppercase,slice,currency,date,percent,value,async,json
 Content Projection - Single Line, Multi Line, Conditional </t>
+  </si>
+  <si>
+    <t>29-01026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Angular Guards, Rxjs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guards - CanActivate, CanActivateChild, CanDeacivate
+Rxjs - Observables, Subscribe,Of(), from(), map(), filter(), tap(), switchmap, mergemap, catcherror, subject</t>
   </si>
 </sst>
 </file>
@@ -1285,7 +1295,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A11" zoomScale="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A12" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1653,13 +1663,29 @@
       <c r="C19" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="D19" s="14" t="s">
+      <c r="D19" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="E19" s="14" t="s">
+      <c r="E19" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="F19" s="15"/>
+      <c r="F19" s="14"/>
+    </row>
+    <row r="20" ht="28.5">
+      <c r="A20" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="F20" s="14"/>
     </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>

--- a/Tracker Update.xlsx
+++ b/Tracker Update.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
     <t>DATE</t>
   </si>
@@ -625,7 +625,7 @@
 Content Projection - Single Line, Multi Line, Conditional </t>
   </si>
   <si>
-    <t>29-01026</t>
+    <t>29-01-26</t>
   </si>
   <si>
     <t xml:space="preserve">Angular Guards, Rxjs</t>
@@ -633,6 +633,16 @@
   <si>
     <t xml:space="preserve">Guards - CanActivate, CanActivateChild, CanDeacivate
 Rxjs - Observables, Subscribe,Of(), from(), map(), filter(), tap(), switchmap, mergemap, catcherror, subject</t>
+  </si>
+  <si>
+    <t>30-01-26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Angular Rxjs, Observables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BehaviorSubject,combinelatest,debouncetime,concatemap,next,error,complete,concatAll,mergeAll,SwitchAll,Timer,Interval,ForkJoin,race,mapto,pluk,exhaustmap,filter
+Filter - first,last,take,takewhile,takelatest,skip,skipwhile,distinct,distinctuntillchanged,delaywhen,repeat,retry</t>
   </si>
 </sst>
 </file>
@@ -1295,7 +1305,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A12" zoomScale="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A18" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1663,29 +1673,45 @@
       <c r="C19" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="D19" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="E19" s="15" t="s">
+      <c r="E19" s="14" t="s">
         <v>61</v>
       </c>
       <c r="F19" s="14"/>
     </row>
-    <row r="20" ht="28.5">
+    <row r="20" ht="57">
       <c r="A20" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15" t="s">
+      <c r="C20" s="14"/>
+      <c r="D20" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="E20" s="15" t="s">
+      <c r="E20" s="14" t="s">
         <v>64</v>
       </c>
       <c r="F20" s="14"/>
+    </row>
+    <row r="21" ht="99.75">
+      <c r="A21" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="14"/>
+      <c r="D21" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="F21" s="14"/>
     </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>

--- a/Tracker Update.xlsx
+++ b/Tracker Update.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
   <si>
     <t>DATE</t>
   </si>
@@ -643,6 +643,40 @@
   <si>
     <t xml:space="preserve">BehaviorSubject,combinelatest,debouncetime,concatemap,next,error,complete,concatAll,mergeAll,SwitchAll,Timer,Interval,ForkJoin,race,mapto,pluk,exhaustmap,filter
 Filter - first,last,take,takewhile,takelatest,skip,skipwhile,distinct,distinctuntillchanged,delaywhen,repeat,retry</t>
+  </si>
+  <si>
+    <t>Javascript</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS Basics - practicles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Variable types, Js Types,Operators, Js Conditional, Js Looping Statements, Js Strings, Js Functions, Js Objects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS Types - number,bigint,boolean,object,undefined,null,symbol
+Operators - Assignment Operators, Arithmetic Operators, Ternary Operator, Comparison Operators
+JS Conditional - If, If..else, If..elseif,
+JS Switch , Js Loops- While, Do-while, For
+Js Strings - Strings, Template strings, Escape Character, String.length,CharAt,Concat,at,[],slice,touppercase,tolowercase,isWellformed,towellformed,trim,trimstart,trimend,padstart,padend,repeate,replace,replaceall,split
+JS Function - Function declaration,Call,Apply,Bind,Closure,IIFE Method
+JS Objects - assign,create,keys,values,get,set,preventExtension,Extensible,seal,isSealed,freeze,isFrozen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Javascript, Typescript Project Initialization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Js Intermediate - Arrays,reg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Array Methods, for..in,for..of,array iteration,regular expression,js promise
+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Array Methods - arr length,tostring,at,join,pop,push,shift,unshift,delete,concat,copywithin,flat,splice,tospliced,slice,tosliced,indexof,lastindexof,inlucdes,find,findindex,findlast,findlastindex,tosorted,toreversed,sort,reverse
+for- for..in,for..of
+Array Iteration- map,filter,reduce,foreach,every,some,from
+reg ex- [],^negation,+ one or more,* 0 or more,?optional  0 or 1,$match end,( | ) combine condition,test,match,replace,split</t>
   </si>
 </sst>
 </file>
@@ -748,7 +782,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -792,7 +826,13 @@
     <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="14" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1305,7 +1345,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A18" zoomScale="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A22" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1682,7 +1722,7 @@
       <c r="F19" s="14"/>
     </row>
     <row r="20" ht="57">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="14" t="s">
         <v>62</v>
       </c>
       <c r="B20" s="14" t="s">
@@ -1698,20 +1738,56 @@
       <c r="F20" s="14"/>
     </row>
     <row r="21" ht="99.75">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="14" t="s">
         <v>40</v>
       </c>
       <c r="C21" s="14"/>
-      <c r="D21" s="15" t="s">
+      <c r="D21" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="E21" s="15" t="s">
+      <c r="E21" s="14" t="s">
         <v>67</v>
       </c>
       <c r="F21" s="14"/>
+    </row>
+    <row r="22" ht="213.75">
+      <c r="A22" s="15">
+        <v>46055</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="F22" s="14"/>
+    </row>
+    <row r="23" ht="156.75">
+      <c r="A23" s="17">
+        <v>46083</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="F23" s="14"/>
     </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>

--- a/Tracker Update.xlsx
+++ b/Tracker Update.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <si>
     <t>DATE</t>
   </si>
@@ -677,6 +677,27 @@
 for- for..in,for..of
 Array Iteration- map,filter,reduce,foreach,every,some,from
 reg ex- [],^negation,+ one or more,* 0 or more,?optional  0 or 1,$match end,( | ) combine condition,test,match,replace,split</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type Script</t>
+  </si>
+  <si>
+    <t>Typescript</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Typescript Project initialize, Typescript Types,Typescript Explict,Inference,Special Types, Arrays, Tuples,Objects,Typescript Enum, Alias and Interface, Functions, Casting, Class, Utility Types</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TypeScript Types - number,boolean,string,..
+Special Types - any,unknown,
+Arrays - Simple array, Readonly method
+Tuples - Tuples, NamedTuples and destructuring
+Objects - Simple, Optional property, Index Signature
+Typescript Enum,Alias and Interface - Alias, Interface, Extending Interface, Typescript Functions - void, return, optional, parameter, default, named, rest
+Typescript Casting - as, &lt;&gt;
+Typescript class - simple class, Inheritance, private,public, protected variables, Implements, extends, override
+Utility Types - Partial, Require, Readonly, Pick, Omit, Record, Returntype, Parameter
+</t>
   </si>
 </sst>
 </file>
@@ -782,7 +803,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -829,10 +850,16 @@
     <xf fontId="0" fillId="0" borderId="0" numFmtId="14" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1345,7 +1372,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A22" zoomScale="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="E23" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1757,37 +1784,56 @@
       <c r="A22" s="15">
         <v>46055</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C22" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="D22" s="16" t="s">
+      <c r="D22" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="14" t="s">
         <v>71</v>
       </c>
       <c r="F22" s="14"/>
     </row>
     <row r="23" ht="156.75">
-      <c r="A23" s="17">
+      <c r="A23" s="16">
         <v>46083</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C23" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="D23" s="16" t="s">
+      <c r="D23" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="14" t="s">
         <v>75</v>
       </c>
       <c r="F23" s="14"/>
+    </row>
+    <row r="24" ht="213.75">
+      <c r="A24" s="17">
+        <v>46114</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="F24" s="14"/>
+      <c r="I24" s="19"/>
     </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>

--- a/Tracker Update.xlsx
+++ b/Tracker Update.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
   <si>
     <t>DATE</t>
   </si>
@@ -698,6 +698,26 @@
 Typescript class - simple class, Inheritance, private,public, protected variables, Implements, extends, override
 Utility Types - Partial, Require, Readonly, Pick, Omit, Record, Returntype, Parameter
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Node js</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Node JS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buffer, Files system, Path module,streams, Process Object, Http Server, Readline Module, Util</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buffer- BufferFrom,BufferAlloc,BufferIsBuffer
+Files System - readfile,writefile,appendfile,readdirfile,existsync,
+Path Module - path join, path resolve, path base,path directory, path ext name, 
+Streams - readstream,writestream,streamon,streampipe
+streamunpipe
+Process Object - process env, process cwd,process id, process memory usage, process platform , process archietecture, process emitwarning
+Http server - create http,listen http,
+ReadlineModule - createinterface, rl.questions,rl.close,
+Util - promisfy,isbuffer,iserror,ispromise</t>
   </si>
 </sst>
 </file>
@@ -803,7 +823,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -857,9 +877,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1372,7 +1389,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="E23" zoomScale="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A24" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1817,23 +1834,41 @@
       <c r="F23" s="14"/>
     </row>
     <row r="24" ht="213.75">
-      <c r="A24" s="17">
+      <c r="A24" s="16">
         <v>46114</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="D24" s="18" t="s">
+      <c r="D24" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="E24" s="18" t="s">
+      <c r="E24" s="14" t="s">
         <v>79</v>
       </c>
       <c r="F24" s="14"/>
-      <c r="I24" s="19"/>
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" ht="199.5">
+      <c r="A25" s="17">
+        <v>46175</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="F25" s="14"/>
     </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>

--- a/Tracker Update.xlsx
+++ b/Tracker Update.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
   <si>
     <t>DATE</t>
   </si>
@@ -718,6 +718,20 @@
 Http server - create http,listen http,
 ReadlineModule - createinterface, rl.questions,rl.close,
 Util - promisfy,isbuffer,iserror,ispromise</t>
+  </si>
+  <si>
+    <t>Mongodb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mongodb basis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mongodb createcollection,insertone,insertmany,deleteone,deletemany,updateone,updatemany, projection functionality, Query - Comparison operators, Logical Operators
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comparison Operators - $eq,$ne,$gt,$lt,$gte,$lte,$in,$nin
+Logical Operators - $not,$nor,$and,$or</t>
   </si>
 </sst>
 </file>
@@ -823,61 +837,67 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf fontId="1" fillId="2" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="2" fillId="2" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="3" fillId="3" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="4" fillId="3" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="5" fillId="3" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="6" fillId="3" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="0" fillId="3" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf fontId="7" fillId="3" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="8" fillId="3" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="3" fillId="3" borderId="1" numFmtId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="0" fillId="3" borderId="1" numFmtId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="14" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="1" numFmtId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="1" numFmtId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1389,13 +1409,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A24" zoomScale="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" style="1" width="9.140625"/>
+    <col bestFit="1" min="1" max="1" style="1" width="9.421875"/>
     <col customWidth="1" min="2" max="2" style="1" width="13.421875"/>
     <col customWidth="1" min="3" max="3" style="1" width="19.57421875"/>
     <col customWidth="1" min="4" max="4" style="1" width="46.28125"/>
@@ -1853,25 +1873,46 @@
       <c r="I24" s="1"/>
     </row>
     <row r="25" ht="199.5">
-      <c r="A25" s="17">
+      <c r="A25" s="16">
         <v>46175</v>
       </c>
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="C25" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="D25" s="18" t="s">
+      <c r="D25" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="E25" s="18" t="s">
+      <c r="E25" s="14" t="s">
         <v>83</v>
       </c>
       <c r="F25" s="14"/>
     </row>
+    <row r="26" ht="85.5">
+      <c r="A26" s="17">
+        <v>46297</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="E26" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="F26" s="19"/>
+    </row>
+    <row r="28" ht="14.25">
+      <c r="E28" s="20"/>
+    </row>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
+  <printOptions headings="0" gridLines="1"/>
   <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="0" copies="1"/>
   <headerFooter/>

--- a/Tracker Update.xlsx
+++ b/Tracker Update.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
   <si>
     <t>DATE</t>
   </si>
@@ -732,6 +732,30 @@
   <si>
     <t xml:space="preserve">Comparison Operators - $eq,$ne,$gt,$lt,$gte,$lte,$in,$nin
 Logical Operators - $not,$nor,$and,$or</t>
+  </si>
+  <si>
+    <t>Mongodb,Jquery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mongodb, Jquery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mongodb - Update Operator, Array Operator, Aggregate Function
+Jquery - Document.ready, Id Selector, Class Selector, Mouse Events, Keyboard Events, Form Events, Window Events, Hide and Show, Jquery Fade, Jquery Slides, Jquery Animate, Jquery Set, Jquery Get, Jquery prepend,append,after,before, Jquery remove and empty, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Update Operator - $set, $inc, $rename, $unset, $currentDate
+Array Operator - $addToSet, $pop, $each, $push, $pull
+Aggregate Function - $lookup, $limit, $project, $match, $filter, $sort, $out
+Mouse Events - click, hover, mouseleave,mouseenter
+Keyboard Events - keyup,keypress, keydown
+Form Events - focus, blur, change,submit
+window Events - on, resize,scroll
+Jquery Fade - fadein,fadeout,fadetoggle,fadeto
+Slide - slideup,slidedown,slidetoggle
+Jquery Get - text,html,val
+Jquery Set - text,html,val
+</t>
   </si>
 </sst>
 </file>
@@ -887,14 +911,14 @@
     <xf fontId="0" fillId="0" borderId="1" numFmtId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1409,7 +1433,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A25" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1891,22 +1915,39 @@
       <c r="F25" s="14"/>
     </row>
     <row r="26" ht="85.5">
-      <c r="A26" s="17">
+      <c r="A26" s="16">
         <v>46297</v>
       </c>
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="C26" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="D26" s="18" t="s">
+      <c r="D26" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="E26" s="18" t="s">
+      <c r="E26" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="F26" s="19"/>
+      <c r="F26" s="17"/>
+    </row>
+    <row r="27" ht="213.75">
+      <c r="A27" s="18">
+        <v>46328</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="E27" s="19" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="28" ht="14.25">
       <c r="E28" s="20"/>

--- a/Tracker Update.xlsx
+++ b/Tracker Update.xlsx
@@ -296,7 +296,25 @@
         <color theme="1"/>
         <rFont val="Consolas"/>
       </rPr>
-      <t xml:space="preserve">auto,contain,cover,
+      <t xml:space="preserve">border-box,content-box, padding-box</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+      </rPr>
+      <t xml:space="preserve"> 
 Transparent,inherit,currentcolor
 </t>
     </r>
@@ -329,20 +347,28 @@
   <si>
     <r>
       <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-      </rPr>
-      <t xml:space="preserve">Grid - g</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-      </rPr>
-      <t>rid-template-columns,grid-template-rows,grid-template-areas</t>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+      </rPr>
+      <t xml:space="preserve">Grid -</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+      </rPr>
+      <t>grid-template-columns,grid-template-rows,grid-template-areas</t>
     </r>
   </si>
   <si>
@@ -420,7 +446,7 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Arithmetic,Assignment,Comparison,Lgical,Ternary, TypeOf, Bitwise</t>
+      <t xml:space="preserve">Arithmetic,Assignment,Comparison,Logical,Ternary, TypeOf, Bitwise</t>
     </r>
   </si>
   <si>
@@ -893,13 +919,13 @@
     <xf fontId="7" fillId="3" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="8" fillId="3" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf fontId="3" fillId="3" borderId="1" numFmtId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="0" fillId="3" borderId="1" numFmtId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="8" fillId="3" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1433,7 +1459,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A25" zoomScale="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="C5" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1529,7 +1555,7 @@
       <c r="H4" s="9"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" ht="121.5">
+    <row r="5" ht="148.5">
       <c r="A5" s="4" t="s">
         <v>14</v>
       </c>
@@ -1563,7 +1589,7 @@
       <c r="D6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="10" t="s">
         <v>21</v>
       </c>
       <c r="F6" s="4"/>
@@ -1582,7 +1608,7 @@
       <c r="D7" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="10" t="s">
         <v>24</v>
       </c>
       <c r="F7" s="4"/>
@@ -1591,7 +1617,7 @@
       <c r="I7" s="1"/>
     </row>
     <row r="8" ht="121.5">
-      <c r="A8" s="12">
+      <c r="A8" s="11">
         <v>46054</v>
       </c>
       <c r="B8" s="8" t="s">
@@ -1603,7 +1629,7 @@
       <c r="D8" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="10" t="s">
         <v>27</v>
       </c>
       <c r="F8" s="4" t="s">
@@ -1614,7 +1640,7 @@
       <c r="I8" s="1"/>
     </row>
     <row r="9" ht="270.75">
-      <c r="A9" s="13">
+      <c r="A9" s="12">
         <v>46143</v>
       </c>
       <c r="B9" s="8" t="s">
@@ -1624,7 +1650,7 @@
         <v>29</v>
       </c>
       <c r="D9" s="5"/>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="10" t="s">
         <v>30</v>
       </c>
       <c r="F9" s="8" t="s">
@@ -1635,7 +1661,7 @@
       <c r="I9" s="1"/>
     </row>
     <row r="10" ht="81">
-      <c r="A10" s="12">
+      <c r="A10" s="11">
         <v>46174</v>
       </c>
       <c r="B10" s="8" t="s">
@@ -1645,7 +1671,7 @@
         <v>33</v>
       </c>
       <c r="D10" s="5"/>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="13" t="s">
         <v>34</v>
       </c>
       <c r="F10" s="8"/>
@@ -1654,7 +1680,7 @@
       <c r="I10" s="1"/>
     </row>
     <row r="11" ht="28.5">
-      <c r="A11" s="12">
+      <c r="A11" s="11">
         <v>46204</v>
       </c>
       <c r="B11" s="8" t="s">
@@ -1668,7 +1694,7 @@
       <c r="F11" s="8"/>
     </row>
     <row r="12" ht="42.75">
-      <c r="A12" s="12">
+      <c r="A12" s="11">
         <v>46357</v>
       </c>
       <c r="B12" s="8" t="s">

--- a/Tracker Update.xlsx
+++ b/Tracker Update.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
   <si>
     <t>DATE</t>
   </si>
@@ -387,7 +387,7 @@
     <t xml:space="preserve">JS Additional Topics through js course</t>
   </si>
   <si>
-    <t xml:space="preserve">Array, Function, Variables, Control Structure, Conditional Statement, Looping Statement, Js Functions, Js Scropes &amp; Closures, Arrow Function</t>
+    <t xml:space="preserve">Array, Function, Variables, Control Structure, Conditional Statement, Looping Statement, Js Functions, Js Scopes &amp; Closures, Arrow Function</t>
   </si>
   <si>
     <r>
@@ -782,6 +782,15 @@
 Jquery Get - text,html,val
 Jquery Set - text,html,val
 </t>
+  </si>
+  <si>
+    <t>Feathers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Initialize Project</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create feathers app, Generate feather's service, Assign sevice route, implement mongodb connection, generate authentication, create schema file based on mongodb, Generate app</t>
   </si>
 </sst>
 </file>
@@ -887,7 +896,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -946,7 +955,13 @@
     <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1459,7 +1474,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="C5" zoomScale="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A26" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1975,8 +1990,20 @@
         <v>91</v>
       </c>
     </row>
-    <row r="28" ht="14.25">
-      <c r="E28" s="20"/>
+    <row r="28" ht="57">
+      <c r="A28" s="20">
+        <v>46358</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="C28" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="D28" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="E28" s="22"/>
     </row>
   </sheetData>
   <printOptions headings="0" gridLines="1"/>

--- a/Tracker Update.xlsx
+++ b/Tracker Update.xlsx
@@ -533,7 +533,7 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Localstorage, Sessionstorage, tokens and cookies
+      <t xml:space="preserve"> Localstorage, Sessionstorage, and cookies
 </t>
     </r>
     <r>
@@ -544,16 +544,7 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Exports - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">default exports, named exports</t>
+      <t xml:space="preserve"> </t>
     </r>
   </si>
   <si>
@@ -896,7 +887,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -932,6 +923,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="0" fillId="3" borderId="1" numFmtId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="3" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="8" fillId="3" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1474,7 +1468,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A26" zoomScale="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="B9" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1654,7 +1648,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" ht="270.75">
+    <row r="9" ht="242.25">
       <c r="A9" s="12">
         <v>46143</v>
       </c>
@@ -1668,7 +1662,7 @@
       <c r="E9" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="13" t="s">
         <v>31</v>
       </c>
       <c r="G9" s="1"/>
@@ -1686,7 +1680,7 @@
         <v>33</v>
       </c>
       <c r="D10" s="5"/>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="14" t="s">
         <v>34</v>
       </c>
       <c r="F10" s="8"/>
@@ -1833,177 +1827,177 @@
       <c r="F18" s="8"/>
     </row>
     <row r="19" ht="99.75">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="D19" s="14" t="s">
+      <c r="D19" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="E19" s="14" t="s">
+      <c r="E19" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="F19" s="14"/>
+      <c r="F19" s="15"/>
     </row>
     <row r="20" ht="57">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14" t="s">
+      <c r="C20" s="15"/>
+      <c r="D20" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="E20" s="14" t="s">
+      <c r="E20" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="F20" s="14"/>
+      <c r="F20" s="15"/>
     </row>
     <row r="21" ht="99.75">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14" t="s">
+      <c r="C21" s="15"/>
+      <c r="D21" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="E21" s="14" t="s">
+      <c r="E21" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="F21" s="14"/>
+      <c r="F21" s="15"/>
     </row>
     <row r="22" ht="213.75">
-      <c r="A22" s="15">
+      <c r="A22" s="16">
         <v>46055</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C22" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="D22" s="14" t="s">
+      <c r="D22" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="E22" s="14" t="s">
+      <c r="E22" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="F22" s="14"/>
+      <c r="F22" s="15"/>
     </row>
     <row r="23" ht="156.75">
-      <c r="A23" s="16">
+      <c r="A23" s="17">
         <v>46083</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C23" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="D23" s="14" t="s">
+      <c r="D23" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="E23" s="14" t="s">
+      <c r="E23" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="F23" s="14"/>
+      <c r="F23" s="15"/>
     </row>
     <row r="24" ht="213.75">
-      <c r="A24" s="16">
+      <c r="A24" s="17">
         <v>46114</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C24" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="D24" s="14" t="s">
+      <c r="D24" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="E24" s="14" t="s">
+      <c r="E24" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="F24" s="14"/>
+      <c r="F24" s="15"/>
       <c r="I24" s="1"/>
     </row>
     <row r="25" ht="199.5">
-      <c r="A25" s="16">
+      <c r="A25" s="17">
         <v>46175</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="C25" s="14" t="s">
+      <c r="C25" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="D25" s="14" t="s">
+      <c r="D25" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="E25" s="14" t="s">
+      <c r="E25" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="F25" s="14"/>
+      <c r="F25" s="15"/>
     </row>
     <row r="26" ht="85.5">
-      <c r="A26" s="16">
+      <c r="A26" s="17">
         <v>46297</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="C26" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="D26" s="14" t="s">
+      <c r="D26" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="E26" s="14" t="s">
+      <c r="E26" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="F26" s="17"/>
+      <c r="F26" s="18"/>
     </row>
     <row r="27" ht="213.75">
-      <c r="A27" s="18">
+      <c r="A27" s="19">
         <v>46328</v>
       </c>
-      <c r="B27" s="19" t="s">
+      <c r="B27" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="C27" s="19" t="s">
+      <c r="C27" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="D27" s="19" t="s">
+      <c r="D27" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="E27" s="19" t="s">
+      <c r="E27" s="20" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="28" ht="57">
-      <c r="A28" s="20">
+      <c r="A28" s="21">
         <v>46358</v>
       </c>
-      <c r="B28" s="21" t="s">
+      <c r="B28" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="C28" s="21" t="s">
+      <c r="C28" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="D28" s="21" t="s">
+      <c r="D28" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="E28" s="22"/>
+      <c r="E28" s="23"/>
     </row>
   </sheetData>
   <printOptions headings="0" gridLines="1"/>

--- a/Tracker Update.xlsx
+++ b/Tracker Update.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
   <si>
     <t>DATE</t>
   </si>
@@ -555,12 +555,6 @@
   </si>
   <si>
     <t xml:space="preserve">TS Simple Types, Explict Typing , Type Interface, Arrays, Tuples, Object, Enum, Ts Aliases(type assign to variable and reuse it), Interfaces(same as a Aliases but working for objects), Union, TS Functions, Type Cast, Ts Class</t>
-  </si>
-  <si>
-    <t>JS,Ts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Practice class, objects some practicle topics relevent</t>
   </si>
   <si>
     <t xml:space="preserve">Nodejs, Feathers js</t>
@@ -887,7 +881,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -938,9 +932,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="1" numFmtId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="1" numFmtId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1468,7 +1459,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B9" zoomScale="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="E9" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1688,9 +1679,9 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" ht="28.5">
+    <row r="11" ht="42.75">
       <c r="A11" s="11">
-        <v>46204</v>
+        <v>46357</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>35</v>
@@ -1701,33 +1692,40 @@
         <v>36</v>
       </c>
       <c r="F11" s="8"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
     </row>
     <row r="12" ht="42.75">
-      <c r="A12" s="11">
-        <v>46357</v>
+      <c r="A12" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="5"/>
+        <v>38</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>40</v>
+      </c>
       <c r="E12" s="8" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" ht="42.75">
+    <row r="13" ht="28.5">
       <c r="A13" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>39</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>41</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>42</v>
@@ -1736,21 +1734,18 @@
         <v>43</v>
       </c>
       <c r="F13" s="8"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-    </row>
-    <row r="14" ht="28.5">
+    </row>
+    <row r="14" ht="42.75">
       <c r="A14" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="8" t="s">
         <v>44</v>
       </c>
       <c r="E14" s="8" t="s">
@@ -1758,15 +1753,15 @@
       </c>
       <c r="F14" s="8"/>
     </row>
-    <row r="15" ht="42.75">
+    <row r="15" ht="28.5">
       <c r="A15" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>39</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>41</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>46</v>
@@ -1776,228 +1771,218 @@
       </c>
       <c r="F15" s="8"/>
     </row>
-    <row r="16" ht="28.5">
-      <c r="A16" s="4" t="s">
-        <v>39</v>
+    <row r="16" ht="42.75">
+      <c r="A16" s="8" t="s">
+        <v>48</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>49</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="E16" s="8"/>
       <c r="F16" s="8"/>
     </row>
-    <row r="17" ht="42.75">
+    <row r="17" ht="28.5">
       <c r="A17" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
     </row>
-    <row r="18" ht="28.5">
-      <c r="A18" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18" s="8" t="s">
+    <row r="18" ht="99.75">
+      <c r="A18" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="B18" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-    </row>
-    <row r="19" ht="99.75">
+      <c r="D18" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="F18" s="15"/>
+    </row>
+    <row r="19" ht="57">
       <c r="A19" s="15" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>59</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="C19" s="15"/>
       <c r="D19" s="15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F19" s="15"/>
     </row>
-    <row r="20" ht="57">
+    <row r="20" ht="99.75">
       <c r="A20" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F20" s="15"/>
     </row>
-    <row r="21" ht="99.75">
-      <c r="A21" s="15" t="s">
-        <v>65</v>
+    <row r="21" ht="213.75">
+      <c r="A21" s="16">
+        <v>46055</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" s="15"/>
+        <v>66</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>67</v>
+      </c>
       <c r="D21" s="15" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F21" s="15"/>
     </row>
-    <row r="22" ht="213.75">
-      <c r="A22" s="16">
-        <v>46055</v>
+    <row r="22" ht="156.75">
+      <c r="A22" s="17">
+        <v>46083</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F22" s="15"/>
     </row>
-    <row r="23" ht="156.75">
+    <row r="23" ht="213.75">
       <c r="A23" s="17">
-        <v>46083</v>
+        <v>46114</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F23" s="15"/>
-    </row>
-    <row r="24" ht="213.75">
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" ht="199.5">
       <c r="A24" s="17">
-        <v>46114</v>
+        <v>46175</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F24" s="15"/>
-      <c r="I24" s="1"/>
-    </row>
-    <row r="25" ht="199.5">
+    </row>
+    <row r="25" ht="85.5">
       <c r="A25" s="17">
-        <v>46175</v>
+        <v>46297</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F25" s="15"/>
     </row>
-    <row r="26" ht="85.5">
-      <c r="A26" s="17">
-        <v>46297</v>
-      </c>
-      <c r="B26" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="C26" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="D26" s="15" t="s">
+    <row r="26" ht="213.75">
+      <c r="A26" s="18">
+        <v>46328</v>
+      </c>
+      <c r="B26" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="E26" s="15" t="s">
+      <c r="C26" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="F26" s="18"/>
-    </row>
-    <row r="27" ht="213.75">
-      <c r="A27" s="19">
-        <v>46328</v>
-      </c>
-      <c r="B27" s="20" t="s">
+      <c r="D26" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="C27" s="20" t="s">
+      <c r="E26" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="D27" s="20" t="s">
+      <c r="F26" s="19"/>
+    </row>
+    <row r="27" ht="57">
+      <c r="A27" s="20">
+        <v>46358</v>
+      </c>
+      <c r="B27" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="E27" s="20" t="s">
+      <c r="C27" s="21" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="28" ht="57">
-      <c r="A28" s="21">
-        <v>46358</v>
-      </c>
-      <c r="B28" s="22" t="s">
+      <c r="D27" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="C28" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="D28" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="E28" s="23"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="19"/>
+    </row>
+    <row r="28" ht="14.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="0" gridLines="1"/>

--- a/Tracker Update.xlsx
+++ b/Tracker Update.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
   <si>
     <t>DATE</t>
   </si>
@@ -594,7 +594,7 @@
     <t xml:space="preserve">Angular Forms</t>
   </si>
   <si>
-    <t xml:space="preserve">Template Driven Forms, Reactive Forms  </t>
+    <t xml:space="preserve">Template Driven Forms, Reactive Forms , Validators, FormControlname,formgroup,ngsubmit,ngModel</t>
   </si>
   <si>
     <t>20-01-26</t>
@@ -627,13 +627,14 @@
     <t xml:space="preserve">Angular </t>
   </si>
   <si>
-    <t xml:space="preserve">Angular Encapsulation, Binding Methods, Angular Pipes, Content Projection</t>
+    <t xml:space="preserve">Angular Encapsulation, Binding Methods, Angular Pipes, Content Projection,value and event share</t>
   </si>
   <si>
     <t xml:space="preserve">Encapsulation - emulated,none,showdown
 Binding - interpolation,event,property,two way,style binding, attr binding
 Pipes - lowercase,uppercase,slice,currency,date,percent,value,async,json
-Content Projection - Single Line, Multi Line, Conditional </t>
+Content Projection - Single Line, Multi Line, Conditional
+value and event emit - @Input(),@Output() </t>
   </si>
   <si>
     <t>29-01-26</t>
@@ -776,6 +777,22 @@
   </si>
   <si>
     <t xml:space="preserve">Create feathers app, Generate feather's service, Assign sevice route, implement mongodb connection, generate authentication, create schema file based on mongodb, Generate app</t>
+  </si>
+  <si>
+    <t>13/2/2026</t>
+  </si>
+  <si>
+    <t>Feathres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feathers </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create CRUD Operation , Login Authentication,
+Context</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Context - context.id, context.type (ex. before,after...), context.method,context.app,context.service,context.context.result,context.error,context.params (headers,host related),context.data(incomind data related - ex.body in express),statusCode (manualy we need to set 201,200,404) like this </t>
   </si>
 </sst>
 </file>
@@ -854,7 +871,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left style="none"/>
       <right style="none"/>
@@ -877,11 +894,39 @@
       </bottom>
       <diagonal style="none"/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -919,12 +964,12 @@
     <xf fontId="0" fillId="3" borderId="1" numFmtId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf fontId="8" fillId="3" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf fontId="0" fillId="3" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="8" fillId="3" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -940,14 +985,20 @@
     <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="2" numFmtId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="2" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="2" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="3" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="3" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1459,7 +1510,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="E9" zoomScale="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A26" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1653,7 +1704,7 @@
       <c r="E9" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="8" t="s">
         <v>31</v>
       </c>
       <c r="G9" s="1"/>
@@ -1671,7 +1722,7 @@
         <v>33</v>
       </c>
       <c r="D10" s="5"/>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="13" t="s">
         <v>34</v>
       </c>
       <c r="F10" s="8"/>
@@ -1766,7 +1817,7 @@
       <c r="D15" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="14" t="s">
         <v>47</v>
       </c>
       <c r="F15" s="8"/>
@@ -1803,7 +1854,7 @@
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
     </row>
-    <row r="18" ht="99.75">
+    <row r="18" ht="114">
       <c r="A18" s="15" t="s">
         <v>56</v>
       </c>
@@ -1976,13 +2027,25 @@
         <v>92</v>
       </c>
       <c r="E27" s="22"/>
-      <c r="F27" s="19"/>
-    </row>
-    <row r="28" ht="14.25">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
+      <c r="F27" s="21"/>
+    </row>
+    <row r="28" ht="85.5">
+      <c r="A28" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="B28" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="C28" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="D28" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="E28" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="F28" s="24"/>
     </row>
   </sheetData>
   <printOptions headings="0" gridLines="1"/>

--- a/Tracker Update.xlsx
+++ b/Tracker Update.xlsx
@@ -789,10 +789,13 @@
   </si>
   <si>
     <t xml:space="preserve">Create CRUD Operation , Login Authentication,
-Context</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Context - context.id, context.type (ex. before,after...), context.method,context.app,context.service,context.context.result,context.error,context.params (headers,host related),context.data(incomind data related - ex.body in express),statusCode (manualy we need to set 201,200,404) like this </t>
+Context,
+Types,Methods</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Context - context.id, context.type (ex. before,after...), context.method,context.app,context.service,context.context.result,context.error,context.params (headers,host related),context.data(incomind data related - ex.body in express),statusCode (manualy we need to set 201,200,404) like this ,
+Types -before, after,around,error
+Methods - find,get,patch,update,remove</t>
   </si>
 </sst>
 </file>
@@ -917,9 +920,7 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <bottom style="none"/>
       <diagonal style="none"/>
     </border>
   </borders>
@@ -1510,7 +1511,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A26" zoomScale="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="B27" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -2029,7 +2030,7 @@
       <c r="E27" s="22"/>
       <c r="F27" s="21"/>
     </row>
-    <row r="28" ht="85.5">
+    <row r="28" ht="114">
       <c r="A28" s="23" t="s">
         <v>93</v>
       </c>
@@ -2046,6 +2047,14 @@
         <v>97</v>
       </c>
       <c r="F28" s="24"/>
+    </row>
+    <row r="29" ht="14.25">
+      <c r="A29" s="19"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
     </row>
   </sheetData>
   <printOptions headings="0" gridLines="1"/>
